--- a/Fichiers/Bilans/bilanContratsS4.xlsx
+++ b/Fichiers/Bilans/bilanContratsS4.xlsx
@@ -23,100 +23,100 @@
     <t xml:space="preserve">Code.EC</t>
   </si>
   <si>
-    <t xml:space="preserve">Garnier_Camille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubois_Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurent_Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fontaine_Chloé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard_Léo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David_Arthur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger_Jules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michel_Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leroy_Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David_Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fournier_Camille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubois_Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas_Noah_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garnier_Manon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertrand_Noah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garcia_Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morin_Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurent_Camille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger_Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roux_Gabriel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chevalier_Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David_Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petit_Adam_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertrand_Hugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moulin_Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertrand_Chloé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durand_Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durand_Jules_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leroy_Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petit_Jules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petit_Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fontaine_Manon</t>
+    <t xml:space="preserve">Roger_Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Camille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia_Léo_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertrand_Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevalier_Jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubois_Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent_Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durand_Camille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morin_Arthur_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert_Raphaël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert_Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas_Noah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Zoé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulin_Chloé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fontaine_Léo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger_Louise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger_Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurent_Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard_Jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger_Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel_Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leroy_Alice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin_Alice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard_Raphaël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Léo_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel_Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durand_Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulin_Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leroy_Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit_Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertrand_Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit_Noah</t>
   </si>
   <si>
     <t xml:space="preserve">Sciences expérimentales (UE-STP04-SE)</t>
@@ -692,40 +692,40 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
         <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
         <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
         <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
         <v>38</v>
@@ -734,7 +734,7 @@
         <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
         <v>38</v>
@@ -752,28 +752,28 @@
         <v>38</v>
       </c>
       <c r="AB2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s">
         <v>38</v>
       </c>
       <c r="AD2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s">
         <v>39</v>
       </c>
       <c r="AF2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="s">
         <v>38</v>
       </c>
       <c r="AI2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -787,13 +787,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -802,19 +802,19 @@
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -829,46 +829,46 @@
         <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
         <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
         <v>38</v>
       </c>
       <c r="W3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s">
         <v>38</v>
       </c>
       <c r="AB3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s">
         <v>38</v>
       </c>
       <c r="AD3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s">
         <v>38</v>
@@ -877,7 +877,7 @@
         <v>38</v>
       </c>
       <c r="AH3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI3" t="s">
         <v>38</v>
@@ -897,10 +897,10 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -909,7 +909,7 @@
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
         <v>38</v>
@@ -927,16 +927,16 @@
         <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
         <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
@@ -954,19 +954,19 @@
         <v>38</v>
       </c>
       <c r="X4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
         <v>39</v>
       </c>
       <c r="Z4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s">
         <v>38</v>
       </c>
       <c r="AB4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s">
         <v>38</v>
@@ -981,10 +981,10 @@
         <v>38</v>
       </c>
       <c r="AG4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="s">
         <v>38</v>
@@ -1013,7 +1013,7 @@
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -1022,7 +1022,7 @@
         <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -1034,10 +1034,10 @@
         <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
         <v>38</v>
@@ -1046,19 +1046,19 @@
         <v>38</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
         <v>38</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s">
         <v>38</v>
@@ -1067,13 +1067,13 @@
         <v>39</v>
       </c>
       <c r="Z5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s">
         <v>38</v>
       </c>
       <c r="AB5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s">
         <v>38</v>
@@ -1088,13 +1088,13 @@
         <v>38</v>
       </c>
       <c r="AG5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s">
         <v>38</v>
       </c>
       <c r="AI5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1114,28 +1114,28 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
         <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
         <v>38</v>
@@ -1144,13 +1144,13 @@
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
         <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s">
         <v>38</v>
@@ -1168,10 +1168,10 @@
         <v>38</v>
       </c>
       <c r="X6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -1180,7 +1180,7 @@
         <v>38</v>
       </c>
       <c r="AB6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s">
         <v>38</v>
@@ -1189,16 +1189,16 @@
         <v>39</v>
       </c>
       <c r="AE6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI6" t="s">
         <v>38</v>
@@ -1218,7 +1218,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1227,13 +1227,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
@@ -1242,7 +1242,7 @@
         <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
         <v>38</v>
@@ -1251,31 +1251,31 @@
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
         <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s">
         <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s">
         <v>38</v>
@@ -1293,7 +1293,7 @@
         <v>38</v>
       </c>
       <c r="AD7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s">
         <v>39</v>
@@ -1302,13 +1302,13 @@
         <v>38</v>
       </c>
       <c r="AG7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s">
         <v>38</v>
       </c>
       <c r="AI7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -1325,19 +1325,19 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
@@ -1346,19 +1346,19 @@
         <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
         <v>39</v>
@@ -1367,13 +1367,13 @@
         <v>38</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s">
         <v>38</v>
@@ -1382,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="X8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s">
         <v>39</v>
@@ -1391,28 +1391,28 @@
         <v>38</v>
       </c>
       <c r="AA8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s">
         <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG8" t="s">
         <v>38</v>
       </c>
       <c r="AH8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="s">
         <v>38</v>
@@ -1429,16 +1429,16 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
@@ -1447,10 +1447,10 @@
         <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
         <v>39</v>
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
         <v>38</v>
@@ -1468,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
@@ -1477,10 +1477,10 @@
         <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s">
         <v>38</v>
@@ -1489,7 +1489,7 @@
         <v>38</v>
       </c>
       <c r="X9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s">
         <v>39</v>
@@ -1501,10 +1501,10 @@
         <v>39</v>
       </c>
       <c r="AB9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s">
         <v>39</v>
@@ -1513,13 +1513,13 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG9" t="s">
         <v>38</v>
       </c>
       <c r="AH9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="s">
         <v>38</v>
@@ -1536,40 +1536,40 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
         <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
         <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -1578,7 +1578,7 @@
         <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -1587,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s">
         <v>38</v>
@@ -1602,16 +1602,16 @@
         <v>39</v>
       </c>
       <c r="Z10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s">
         <v>39</v>
@@ -1620,13 +1620,13 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG10" t="s">
         <v>38</v>
       </c>
       <c r="AH10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="s">
         <v>38</v>
@@ -1643,31 +1643,31 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
@@ -1685,13 +1685,13 @@
         <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s">
         <v>38</v>
@@ -1700,16 +1700,16 @@
         <v>38</v>
       </c>
       <c r="W11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s">
         <v>38</v>
       </c>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s">
         <v>38</v>
@@ -1721,22 +1721,22 @@
         <v>38</v>
       </c>
       <c r="AD11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s">
         <v>39</v>
       </c>
       <c r="AG11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s">
         <v>38</v>
       </c>
       <c r="AI11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1750,34 +1750,34 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N12" t="s">
         <v>39</v>
@@ -1786,25 +1786,25 @@
         <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R12" t="s">
         <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s">
         <v>39</v>
@@ -1822,28 +1822,28 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s">
         <v>38</v>
       </c>
       <c r="AD12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s">
         <v>39</v>
       </c>
       <c r="AG12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -1857,34 +1857,34 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
         <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
         <v>39</v>
@@ -1893,25 +1893,25 @@
         <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
         <v>38</v>
       </c>
       <c r="U13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s">
         <v>39</v>
@@ -1929,25 +1929,25 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s">
         <v>38</v>
       </c>
       <c r="AD13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s">
         <v>39</v>
       </c>
       <c r="AG13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI13" t="s">
         <v>38</v>
@@ -1970,34 +1970,34 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
         <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
         <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
         <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
         <v>39</v>
@@ -2018,25 +2018,25 @@
         <v>38</v>
       </c>
       <c r="V14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s">
         <v>38</v>
       </c>
       <c r="Z14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s">
         <v>38</v>
@@ -2045,19 +2045,19 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -2077,19 +2077,19 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -2101,31 +2101,31 @@
         <v>38</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" t="s">
         <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s">
         <v>39</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s">
         <v>38</v>
@@ -2140,13 +2140,13 @@
         <v>39</v>
       </c>
       <c r="AA15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD15" t="s">
         <v>39</v>
@@ -2158,10 +2158,10 @@
         <v>38</v>
       </c>
       <c r="AG15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI15" t="s">
         <v>39</v>
@@ -2178,7 +2178,7 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -2187,16 +2187,16 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
         <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -2205,16 +2205,16 @@
         <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" t="s">
         <v>39</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>39</v>
@@ -2226,19 +2226,19 @@
         <v>38</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s">
         <v>38</v>
@@ -2247,31 +2247,31 @@
         <v>38</v>
       </c>
       <c r="AA16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s">
         <v>38</v>
       </c>
       <c r="AC16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s">
         <v>38</v>
       </c>
       <c r="AE16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -2291,10 +2291,10 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
@@ -2303,7 +2303,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
@@ -2312,10 +2312,10 @@
         <v>38</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O17" t="s">
         <v>38</v>
@@ -2327,22 +2327,22 @@
         <v>38</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s">
         <v>38</v>
       </c>
       <c r="W17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s">
         <v>38</v>
@@ -2351,19 +2351,19 @@
         <v>38</v>
       </c>
       <c r="Z17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA17" t="s">
         <v>38</v>
       </c>
       <c r="AB17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s">
         <v>39</v>
       </c>
       <c r="AD17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE17" t="s">
         <v>38</v>
@@ -2375,7 +2375,7 @@
         <v>38</v>
       </c>
       <c r="AH17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI17" t="s">
         <v>39</v>
